--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27820" windowHeight="12560"/>
+    <workbookView windowWidth="27820" windowHeight="12560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
+    <sheet name="select_ip" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +57,18 @@
   </si>
   <si>
     <t>{"key":"37e47a2441ceb88ab3086574dc68f1e3","type":"yule"}</t>
+  </si>
+  <si>
+    <t>【查询IP地址】</t>
+  </si>
+  <si>
+    <t>成功查询到IP地址</t>
+  </si>
+  <si>
+    <t>/ip/ipNew</t>
+  </si>
+  <si>
+    <t>{"ip":"106.121.140.179"，"key":"65eb2b57a078dad94347ad3a1a05b5d9"}</t>
   </si>
 </sst>
 </file>
@@ -63,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -84,6 +97,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -92,9 +112,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,8 +141,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +188,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,23 +213,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,74 +235,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +440,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,6 +511,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,188 +540,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,8 +1021,8 @@
   <sheetPr/>
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1094,4 +1107,75 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="16.5178571428571" customWidth="1"/>
+    <col min="2" max="2" width="16.2232142857143" customWidth="1"/>
+    <col min="3" max="3" width="18.0089285714286" customWidth="1"/>
+    <col min="4" max="4" width="16.8035714285714" customWidth="1"/>
+    <col min="6" max="6" width="66.3660714285714" customWidth="1"/>
+    <col min="8" max="8" width="16.6607142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27820" windowHeight="12560" activeTab="1"/>
+    <workbookView windowWidth="27780" windowHeight="12560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="news" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>/toutiao/index</t>
   </si>
   <si>
-    <t>{"key":"37e47a2441ceb88ab3086574dc68f1e3,"type":"top"}</t>
+    <t>{"key":"37e47a2441ceb88ab3086574dc68f1e3","type":"top"}</t>
   </si>
   <si>
     <t>{"error_code": 0}</t>
@@ -68,7 +68,7 @@
     <t>/ip/ipNew</t>
   </si>
   <si>
-    <t>{"ip":"106.121.140.179"，"key":"65eb2b57a078dad94347ad3a1a05b5d9"}</t>
+    <t>{"ip":"106.121.140.179","key":"65eb2b57a078dad94347ad3a1a05b5d9"}</t>
   </si>
 </sst>
 </file>
@@ -76,10 +76,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -96,30 +96,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -141,6 +119,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -149,6 +210,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -156,85 +232,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,35 +440,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,6 +467,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -507,6 +513,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,168 +540,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1022,7 +1022,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
